--- a/2019.xlsx
+++ b/2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanCarney/Documents/GitHub/Clemson_Football_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Clemson_Football_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A0935C-450D-BC41-8F93-E6B770721E1E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BAED4C-5649-4106-B94C-F25BE6F4CB71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14780" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
+    <workbookView xWindow="4455" yWindow="705" windowWidth="21450" windowHeight="14670" activeTab="1" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Depth" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Blank Depth'!$A$1:$B$112</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>TD</t>
   </si>
@@ -208,9 +214,6 @@
     <t>Avg_Punt_Yds</t>
   </si>
   <si>
-    <t>PASTE KICKING BELOW</t>
-  </si>
-  <si>
     <t>Game Number</t>
   </si>
   <si>
@@ -250,29 +253,14 @@
     <t>Opp_Rank</t>
   </si>
   <si>
-    <t>Kicker/Punter</t>
-  </si>
-  <si>
-    <t>Player Name</t>
-  </si>
-  <si>
-    <t>Player Position</t>
-  </si>
-  <si>
-    <t>WR probably</t>
-  </si>
-  <si>
-    <t>RB probably</t>
-  </si>
-  <si>
-    <t>QB probs</t>
+    <t>Paste Kicking Below</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -386,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -404,12 +392,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -427,6 +409,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -747,23 +732,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C53284-FF89-E74F-A4E7-AC50B8F7C354}">
   <dimension ref="A1:T128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -816,7 +801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="16.5">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A33" si="0">K2</f>
         <v>0</v>
@@ -856,7 +841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -889,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -922,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -955,7 +940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -988,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1021,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1054,7 +1039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1084,7 +1069,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1114,7 +1099,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1144,7 +1129,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1174,7 +1159,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1204,7 +1189,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1234,7 +1219,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1264,7 +1249,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1294,7 +1279,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1324,7 +1309,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1354,7 +1339,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1384,7 +1369,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1414,7 +1399,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1444,7 +1429,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1474,7 +1459,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1504,7 +1489,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1534,7 +1519,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1564,7 +1549,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1594,7 +1579,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1624,7 +1609,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1654,7 +1639,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1684,7 +1669,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1714,7 +1699,7 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1744,7 +1729,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1774,7 +1759,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1804,7 +1789,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <f t="shared" ref="A34:A65" si="5">K34</f>
         <v>0</v>
@@ -1834,7 +1819,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1864,7 +1849,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1894,7 +1879,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1924,7 +1909,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1954,7 +1939,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1984,7 +1969,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2014,7 +1999,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2044,7 +2029,7 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2074,7 +2059,7 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2104,7 +2089,7 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2134,7 +2119,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2164,7 +2149,7 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2194,7 +2179,7 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2224,7 +2209,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2254,7 +2239,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2284,7 +2269,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2314,7 +2299,7 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2344,7 +2329,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2374,7 +2359,7 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2404,7 +2389,7 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2434,7 +2419,7 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2464,7 +2449,7 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2494,7 +2479,7 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2524,7 +2509,7 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2554,7 +2539,7 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2584,7 +2569,7 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2614,7 +2599,7 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2644,7 +2629,7 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2674,7 +2659,7 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2704,7 +2689,7 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2734,7 +2719,7 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2764,7 +2749,7 @@
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <f t="shared" ref="A66:A97" si="10">K66</f>
         <v>0</v>
@@ -2794,7 +2779,7 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -2824,7 +2809,7 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -2854,7 +2839,7 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -2884,7 +2869,7 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -2914,7 +2899,7 @@
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -2944,7 +2929,7 @@
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -2974,7 +2959,7 @@
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3004,7 +2989,7 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3034,7 +3019,7 @@
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3064,7 +3049,7 @@
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3094,7 +3079,7 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3124,7 +3109,7 @@
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16">
       <c r="A78" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3154,7 +3139,7 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16">
       <c r="A79" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3184,7 +3169,7 @@
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3214,7 +3199,7 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="A81" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3244,7 +3229,7 @@
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="A82" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3274,7 +3259,7 @@
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16">
       <c r="A83" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3304,7 +3289,7 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16">
       <c r="A84" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3334,7 +3319,7 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16">
       <c r="A85" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3364,7 +3349,7 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16">
       <c r="A86" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3394,7 +3379,7 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16">
       <c r="A87" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3424,7 +3409,7 @@
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16">
       <c r="A88" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3454,7 +3439,7 @@
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16">
       <c r="A89" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3484,7 +3469,7 @@
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16">
       <c r="A90" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3514,7 +3499,7 @@
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16">
       <c r="A91" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3544,7 +3529,7 @@
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="A92" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3574,7 +3559,7 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="A93" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3604,7 +3589,7 @@
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="A94" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3634,7 +3619,7 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16">
       <c r="A95" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3664,7 +3649,7 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16">
       <c r="A96" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3694,7 +3679,7 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16">
       <c r="A97" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3724,7 +3709,7 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16">
       <c r="A98" s="1">
         <f t="shared" ref="A98:A112" si="15">K98</f>
         <v>0</v>
@@ -3754,7 +3739,7 @@
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16">
       <c r="A99" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -3784,7 +3769,7 @@
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16">
       <c r="A100" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -3814,7 +3799,7 @@
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16">
       <c r="A101" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -3844,7 +3829,7 @@
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16">
       <c r="A102" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -3874,7 +3859,7 @@
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16">
       <c r="A103" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -3904,7 +3889,7 @@
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16">
       <c r="A104" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -3934,7 +3919,7 @@
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16">
       <c r="A105" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -3964,7 +3949,7 @@
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16">
       <c r="A106" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -3994,7 +3979,7 @@
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16">
       <c r="A107" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -4024,7 +4009,7 @@
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16">
       <c r="A108" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -4054,7 +4039,7 @@
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16">
       <c r="A109" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -4084,7 +4069,7 @@
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16">
       <c r="A110" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -4114,7 +4099,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16">
       <c r="A111" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -4144,7 +4129,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16">
       <c r="A112" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -4174,88 +4159,88 @@
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
     </row>
-    <row r="120" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="1">
-      <c r="A120" s="21"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="30.95" customHeight="1">
+      <c r="A120" s="19"/>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
+        <v>59</v>
+      </c>
+      <c r="B121" t="s">
         <v>60</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="D121" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="E121" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="F121" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G121" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H121" s="10" t="s">
+      <c r="I121" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I121" s="10" t="s">
+      <c r="J121" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J121" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F122" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B112" xr:uid="{ADECBB2A-8D07-1249-B609-433619F79225}"/>
-  <sortState ref="A2:F112">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F112">
     <sortCondition ref="B1:B91" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4265,84 +4250,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3DE190-3B33-E643-BE26-E876BF115F0E}">
-  <dimension ref="A1:AD114"/>
+  <dimension ref="A1:BR123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:CA250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="37" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:70" ht="36">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="21"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+    </row>
+    <row r="3" spans="1:70">
+      <c r="A3" s="1"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1" t="e">
         <f>VLOOKUP(B3,$O$4:$Y$12,3,FALSE)</f>
         <v>#N/A</v>
@@ -4387,21 +4419,63 @@
         <f>VLOOKUP(B3,$O$14:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+    </row>
+    <row r="4" spans="1:70">
       <c r="A4" s="1"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4413,7 +4487,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="O4" s="11"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -4424,10 +4498,52 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="11"/>
+      <c r="BQ4" s="11"/>
+      <c r="BR4" s="11"/>
+    </row>
+    <row r="5" spans="1:70">
       <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4439,12 +4555,63 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="1"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="11"/>
+      <c r="BN5" s="11"/>
+      <c r="BO5" s="11"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+    </row>
+    <row r="6" spans="1:70">
       <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4456,12 +4623,63 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="11"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="11"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="11"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+    </row>
+    <row r="7" spans="1:70">
       <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4473,10 +4691,40 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+    </row>
+    <row r="8" spans="1:70">
       <c r="A8" s="1"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4488,32 +4736,174 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+    </row>
+    <row r="9" spans="1:70">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+    </row>
+    <row r="10" spans="1:70">
       <c r="A10" s="1"/>
-      <c r="B10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:28" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+    </row>
+    <row r="11" spans="1:70" ht="31.5">
+      <c r="A11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="O11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="20"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+    </row>
+    <row r="12" spans="1:70">
+      <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
@@ -4537,93 +4927,137 @@
       <c r="I12" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+    </row>
+    <row r="13" spans="1:70">
+      <c r="A13" s="1"/>
+      <c r="B13" s="20"/>
       <c r="C13" t="e">
-        <f>VLOOKUP(B13,$O$14:$X$36,3,FALSE)</f>
+        <f>VLOOKUP(B13,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D13" t="e">
-        <f>VLOOKUP(B13,$O$14:$X$36,4,FALSE)</f>
+        <f>VLOOKUP(B13,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E13" t="e">
-        <f>VLOOKUP(B13,$O$14:$X$36,5,FALSE)</f>
+        <f>VLOOKUP(B13,$AA$4:$AN$36,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F13" t="e">
-        <f>VLOOKUP(B13,$O$14:$X$36,6,FALSE)</f>
+        <f>VLOOKUP(B13,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G13" t="e">
-        <f>VLOOKUP(B13,$O$14:$X$36,7,FALSE)</f>
+        <f>VLOOKUP(B13,$AA$4:$AN$36,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H13" t="e">
-        <f>VLOOKUP(B13,$O$14:$X$36,8,FALSE)</f>
+        <f>VLOOKUP(B13,$AA$4:$AN$36,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" t="e">
-        <f>VLOOKUP(B13,$O$14:$X$36,10,FALSE)</f>
+        <f>VLOOKUP(B13,$AA$4:$AN$36,10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+    </row>
+    <row r="14" spans="1:70">
       <c r="A14" s="1"/>
-      <c r="B14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="B14" s="20"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
+    </row>
+    <row r="15" spans="1:70">
       <c r="A15" s="1"/>
-      <c r="B15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="B15" s="20"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -4637,29 +5071,61 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
+    </row>
+    <row r="16" spans="1:70">
       <c r="A16" s="1"/>
-      <c r="B16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="B16" s="20"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+    </row>
+    <row r="17" spans="1:57">
       <c r="A17" s="1"/>
-      <c r="B17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="B17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -4673,34 +5139,66 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
+    </row>
+    <row r="18" spans="1:57">
       <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="B18" s="20"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
+    </row>
+    <row r="19" spans="1:57">
       <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="B19" s="20"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -4709,16 +5207,32 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="1"/>
+    </row>
+    <row r="20" spans="1:57">
       <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="B20" s="20"/>
+      <c r="O20" s="20"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -4727,16 +5241,32 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
+    </row>
+    <row r="21" spans="1:57">
       <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -4745,18 +5275,50 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="1:30" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
+    </row>
+    <row r="22" spans="1:57" ht="26.25">
+      <c r="A22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="11"/>
+      <c r="BB22" s="11"/>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="11"/>
+      <c r="BE22" s="11"/>
+    </row>
+    <row r="23" spans="1:57">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
@@ -4771,1015 +5333,651 @@
       <c r="F23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
+      <c r="BE23" s="11"/>
+    </row>
+    <row r="24" spans="1:57">
+      <c r="A24" s="1"/>
+      <c r="B24" s="20"/>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,$O$14:$X$36,7,FALSE)</f>
+        <f>VLOOKUP(B24,$AA$4:$AN$36,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f>VLOOKUP(B24,$O$14:$X$36,8,FALSE)</f>
+        <f>VLOOKUP(B24,$AA$4:$AN$36,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f>VLOOKUP(B24,$O$14:$X$36,9,FALSE)</f>
+        <f>VLOOKUP(B24,$AA$4:$AN$36,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f>VLOOKUP(B24,$O$14:$X$36,10,FALSE)</f>
+        <f>VLOOKUP(B24,$AA$4:$AN$36,10,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="11"/>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="11"/>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="11"/>
+      <c r="BD24" s="11"/>
+      <c r="BE24" s="11"/>
+    </row>
+    <row r="25" spans="1:57">
       <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="11"/>
+      <c r="AZ25" s="11"/>
+      <c r="BA25" s="11"/>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="11"/>
+      <c r="BD25" s="11"/>
+      <c r="BE25" s="11"/>
+    </row>
+    <row r="26" spans="1:57">
       <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="11"/>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="11"/>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="11"/>
+      <c r="BE26" s="11"/>
+    </row>
+    <row r="27" spans="1:57">
       <c r="A27" s="1"/>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:57">
       <c r="A28" s="1"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29" spans="1:57">
       <c r="A29" s="1"/>
-      <c r="B29" s="11"/>
-      <c r="O29" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" spans="1:57">
       <c r="A30" s="1"/>
-      <c r="B30" s="11"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="1:57">
       <c r="A31" s="1"/>
-      <c r="B31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32" spans="1:57">
       <c r="A32" s="1"/>
-      <c r="B32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1"/>
-      <c r="B33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="1"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1"/>
-      <c r="B34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="1"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B34" s="20"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1"/>
-      <c r="B35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1"/>
-      <c r="B36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1"/>
-      <c r="B37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-    </row>
-    <row r="38" spans="1:30" ht="24" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1"/>
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1"/>
+      <c r="B39" s="20"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1"/>
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1"/>
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1"/>
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1"/>
+      <c r="B43" s="20"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1"/>
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1"/>
+      <c r="B45" s="20"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1"/>
+      <c r="B46" s="20"/>
+    </row>
+    <row r="47" spans="1:13" ht="23.25">
+      <c r="A47" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B47" s="20"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B48" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
         <v>36</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D48" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E48" t="s">
         <v>38</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F48" t="s">
         <v>51</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G48" t="s">
         <v>52</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H48" t="s">
         <v>8</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I48" t="s">
         <v>54</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J48" t="s">
         <v>55</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K48" t="s">
         <v>15</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L48" t="s">
         <v>39</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M48" t="s">
         <v>53</v>
       </c>
-      <c r="O39" s="11"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,3,FALSE)</f>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1"/>
+      <c r="B49" s="20"/>
+      <c r="C49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,4,FALSE)</f>
+      <c r="D49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,5,FALSE)</f>
+      <c r="E49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,6,FALSE)</f>
+      <c r="F49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,7,FALSE)</f>
+      <c r="G49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,7,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,8,FALSE)</f>
+      <c r="H49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,8,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,12,FALSE)</f>
+      <c r="I49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,12,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,11,FALSE)</f>
+      <c r="J49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,11,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,13,FALSE)</f>
+      <c r="K49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,13,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,16,FALSE)</f>
+      <c r="L49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,16,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M40" t="e">
-        <f>VLOOKUP(B40,$O$32:$AD$54,15,FALSE)</f>
+      <c r="M49" t="e">
+        <f>VLOOKUP(B49,$AP$4:$BE$26,15,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O40" s="11"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1"/>
-      <c r="B50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1"/>
-      <c r="B51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1"/>
-      <c r="B52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1"/>
-      <c r="B53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="13"/>
-      <c r="AC53" s="13"/>
-      <c r="AD53" s="13"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1"/>
-      <c r="B54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="13"/>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="13"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1"/>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1"/>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1"/>
-      <c r="B57" s="11"/>
-    </row>
-    <row r="58" spans="1:30" ht="24" x14ac:dyDescent="0.3">
+      <c r="B57" s="20"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1"/>
-      <c r="B58" s="11"/>
-      <c r="O58" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1"/>
-      <c r="B59" s="11"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B59" s="20"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1"/>
-      <c r="B60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B60" s="20"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1"/>
-      <c r="B61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B61" s="20"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1"/>
-      <c r="B62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1"/>
-      <c r="B63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B63" s="20"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1"/>
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1"/>
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1"/>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1"/>
-      <c r="B67" s="11"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1"/>
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1"/>
-      <c r="B69" s="11"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1"/>
-      <c r="B70" s="11"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1"/>
-      <c r="B71" s="11"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1"/>
-      <c r="B72" s="11"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1"/>
-      <c r="B73" s="11"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1"/>
-      <c r="B74" s="11"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1"/>
-      <c r="B75" s="11"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1"/>
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="20"/>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1"/>
-      <c r="B77" s="11"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="20"/>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1"/>
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1"/>
-      <c r="B79" s="11"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1"/>
-      <c r="B80" s="11"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="20"/>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1"/>
-      <c r="B81" s="11"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1"/>
-      <c r="B82" s="11"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1"/>
-      <c r="B83" s="11"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="20"/>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1"/>
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1"/>
-      <c r="B85" s="11"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1"/>
-      <c r="B86" s="11"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1"/>
-      <c r="B87" s="11"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="20"/>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1"/>
-      <c r="B88" s="11"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="20"/>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1"/>
-      <c r="B89" s="11"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="20"/>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1"/>
-      <c r="B90" s="11"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="20"/>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1"/>
-      <c r="B91" s="11"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="20"/>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1"/>
-      <c r="B92" s="11"/>
-    </row>
-    <row r="93" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A93" s="18" t="s">
+      <c r="B92" s="20"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="20"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="20"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="20"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="20"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1"/>
+      <c r="B97" s="20"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1"/>
+      <c r="B98" s="20"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1"/>
+      <c r="B99" s="20"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1"/>
+      <c r="B100" s="20"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1"/>
+      <c r="B101" s="20"/>
+    </row>
+    <row r="102" spans="1:10" ht="23.25">
+      <c r="A102" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B93" s="11"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+      <c r="B102" s="20"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B103" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
         <v>41</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D103" t="s">
         <v>42</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E103" t="s">
         <v>43</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F103" t="s">
         <v>44</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G103" t="s">
         <v>56</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H103" t="s">
         <v>45</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I103" t="s">
         <v>57</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J103" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" t="e">
-        <f>VLOOKUP(B95,$O$61:$Z$63,3,FALSE)</f>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1"/>
+      <c r="B104" s="20"/>
+      <c r="C104" t="e">
+        <f>VLOOKUP(B104,$BG$4:$BR$16,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D95" t="e">
-        <f>VLOOKUP(B95,$O$61:$Z$63,4,FALSE)</f>
+      <c r="D104" t="e">
+        <f>VLOOKUP(B104,$BG$4:$BR$6,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E95" t="e">
-        <f>VLOOKUP(B95,$O$61:$Z$63,6,FALSE)</f>
+      <c r="E104" t="e">
+        <f>VLOOKUP(B104,$BG$4:$BR$6,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F95" t="e">
-        <f>VLOOKUP(B95,$O$61:$Z$63,7,FALSE)</f>
+      <c r="F104" t="e">
+        <f>VLOOKUP(B104,$BG$4:$BR$6,7,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G95" t="e">
-        <f>VLOOKUP(B95,$O$61:$Z$63,9,FALSE)</f>
+      <c r="G104" t="e">
+        <f>VLOOKUP(B104,$BG$4:$BR$6,9,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H95" t="e">
-        <f>VLOOKUP(B95,$O$61:$Z$63,10,FALSE)</f>
+      <c r="H104" t="e">
+        <f>VLOOKUP(B104,$BG$4:$BR$6,10,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I95" t="e">
-        <f>VLOOKUP(B95,$O$61:$Z$63,11,FALSE)</f>
+      <c r="I104" t="e">
+        <f>VLOOKUP(B104,$BG$4:$BR$6,11,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J95" t="e">
-        <f>VLOOKUP(B95,$O$61:$Z$63,12,FALSE)</f>
+      <c r="J104" t="e">
+        <f>VLOOKUP(B104,$BG$4:$BR$6,12,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="11"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="11"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="11"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="11"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="11"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="11"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="11"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="11"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="11"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" s="1"/>
-      <c r="B105" s="11"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="20"/>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1"/>
-      <c r="B106" s="11"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="20"/>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1"/>
-      <c r="B107" s="11"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="20"/>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1"/>
-      <c r="B108" s="11"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="20"/>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1"/>
-      <c r="B109" s="11"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="20"/>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1"/>
-      <c r="B110" s="11"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="20"/>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1"/>
-      <c r="B111" s="11"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="20"/>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1"/>
-      <c r="B112" s="11"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="20"/>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="1"/>
-      <c r="B113" s="11"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="20"/>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" s="1"/>
-      <c r="B114" s="11"/>
+      <c r="B114" s="20"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="20"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="20"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="20"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="20"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="20"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="20"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="20"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="20"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="AA30:AD30"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:W59"/>
-    <mergeCell ref="X59:Z59"/>
+  <mergeCells count="17">
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BO2"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AV2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:Y2"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Clemson_Football_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BAED4C-5649-4106-B94C-F25BE6F4CB71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C467A45F-2D2F-47C3-AB25-D5856F671C59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="705" windowWidth="21450" windowHeight="14670" activeTab="1" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
+    <workbookView xWindow="1620" yWindow="1215" windowWidth="21450" windowHeight="14385" activeTab="1" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Depth" sheetId="2" r:id="rId1"/>
@@ -4253,7 +4253,7 @@
   <dimension ref="A1:BR123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CA250"/>
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4408,15 +4408,15 @@
         <v>#N/A</v>
       </c>
       <c r="K3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,3,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$36:$AN$44,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,4,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,6,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O3" s="20"/>
@@ -5557,47 +5557,47 @@
       <c r="A49" s="1"/>
       <c r="B49" s="20"/>
       <c r="C49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,3,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,4,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,5,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,6,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,7,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,8,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,12,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,11,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,13,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,16,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,15,FALSE)</f>
+        <f>VLOOKUP(B49,$AP$4:$BE$256,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5855,31 +5855,31 @@
         <v>#N/A</v>
       </c>
       <c r="D104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,4,FALSE)</f>
+        <f>VLOOKUP(B104,$BG$4:$BR$12,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,6,FALSE)</f>
+        <f>VLOOKUP(B104,$BG$4:$BR$16,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,7,FALSE)</f>
+        <f>VLOOKUP(B104,$BG$4:$BR$16,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,9,FALSE)</f>
+        <f>VLOOKUP(B104,$BG$4:$BR$16,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,10,FALSE)</f>
+        <f>VLOOKUP(B104,$BG$4:$BR$16,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,11,FALSE)</f>
+        <f>VLOOKUP(B104,$BG$4:$BR$16,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,12,FALSE)</f>
+        <f>VLOOKUP(B104,$BG$4:$BR$16,12,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5961,16 +5961,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BO2"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AV2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:Y2"/>
     <mergeCell ref="O12:P12"/>
@@ -5978,6 +5968,16 @@
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BO2"/>
+    <mergeCell ref="BP2:BR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
